--- a/博士/论文提交/adversarial_attack/TCSVT/latex/images/iter.xlsx
+++ b/博士/论文提交/adversarial_attack/TCSVT/latex/images/iter.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhbli\博士\论文提交\adversarial_attack\IJCAI\FormattingGuidelines-IJCAI-21\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhbli\博士\论文提交\adversarial_attack\TCSVT\latex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A029E1-8401-4849-ACAE-36D40BBBFF75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFCAF05-D510-495B-9B6D-6C9857C6CE2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="转置" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t xml:space="preserve">iter num </t>
   </si>
@@ -47,6 +48,22 @@
   </si>
   <si>
     <t xml:space="preserve">MSE      </t>
+  </si>
+  <si>
+    <t>CSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -111,6 +128,957 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TTP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C62C-46F3-A7A1-61C1D62114EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TTP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$1:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C62C-46F3-A7A1-61C1D62114EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="481022152"/>
+        <c:axId val="481016248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="481022152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481016248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481016248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481022152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B05586-6AC4-49E5-9783-2697C6A1E19C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E595FF30-0FBF-42D7-98CE-B496B3DFE797}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1134,4 +2102,66 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B466159-7BF6-434E-AB8E-63FC0DDCDA02}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="C1">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.72</v>
+      </c>
+      <c r="C2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.91</v>
+      </c>
+      <c r="C3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="C4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/博士/论文提交/adversarial_attack/TCSVT/latex/images/iter.xlsx
+++ b/博士/论文提交/adversarial_attack/TCSVT/latex/images/iter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhbli\博士\论文提交\adversarial_attack\TCSVT\latex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFCAF05-D510-495B-9B6D-6C9857C6CE2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2DB663-C178-407F-AE39-656D29AF035E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t xml:space="preserve">iter num </t>
   </si>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>Ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,15 +145,694 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2155264021119339E-2"/>
+          <c:y val="5.0056666666666666E-2"/>
+          <c:w val="0.88418986578459935"/>
+          <c:h val="0.79528555555555558"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-A5E3-42FE-A96E-B9B34EE9E4F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="602872296"/>
+        <c:axId val="602870000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="602872296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="33000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.85273196391340111"/>
+              <c:y val="0.71556765966462599"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602870000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="602870000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602872296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="8" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.00764606785345E-2"/>
+          <c:y val="4.6884444444444444E-2"/>
+          <c:w val="0.88626866912718416"/>
+          <c:h val="0.79845777777777782"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3042-4441-A5D4-EAEDDF56DE0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="621750904"/>
+        <c:axId val="621751560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="621750904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="33000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621751560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="621751560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621750904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -153,30 +840,410 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7878594771241835E-2"/>
+          <c:y val="4.6884444444444444E-2"/>
+          <c:w val="0.88854297385620917"/>
+          <c:h val="0.79845777777777782"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5DD-4B67-8382-09BF5534439A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="626963848"/>
+        <c:axId val="626956632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="626963848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="33000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626956632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="626956632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626963848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4504881450488142E-2"/>
+          <c:y val="2.8255291338329592E-2"/>
+          <c:w val="0.92549511854951183"/>
+          <c:h val="0.89266658809790378"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -184,9 +1251,22 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Before Attack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -196,7 +1276,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$1:$A$4</c:f>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -216,7 +1296,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$B$4</c:f>
+              <c:f>Sheet2!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -244,9 +1324,22 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>After Attack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -256,7 +1349,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$1:$A$4</c:f>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -276,7 +1369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$1:$C$4</c:f>
+              <c:f>Sheet2!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -327,42 +1420,39 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="481016248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -375,25 +1465,22 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -402,16 +1489,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
@@ -430,8 +1517,18 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2458529085537948"/>
+          <c:y val="0"/>
+          <c:w val="0.5082939632545932"/>
+          <c:h val="8.1457615723752236E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -444,16 +1541,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -470,10 +1567,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -491,53 +1585,1593 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1045,14 +3679,626 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>414525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85489</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D96E3FE-E5DB-4E71-B284-D6D3633ADFC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5270897" y="2624136"/>
+          <a:ext cx="6109284" cy="5319478"/>
+          <a:chOff x="5287203" y="2674866"/>
+          <a:chExt cx="6134909" cy="5428188"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="图表 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADCCCE5-2D0F-4FE5-936D-09BC95A65929}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5287203" y="2674866"/>
+          <a:ext cx="6134909" cy="1812424"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="图表 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCC3518-055B-49DD-9057-A4A6020C892D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5287203" y="4489022"/>
+          <a:ext cx="6134909" cy="1812424"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="图表 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1B8AAA-5FFB-4A8E-A598-49C2CC70A605}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5287203" y="6290630"/>
+          <a:ext cx="6134909" cy="1812424"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0545</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27551</cdr:x>
+      <cdr:y>0.12171</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93B5A53-9FD0-4C8B-B914-7F883E31BFF7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="332268" y="0"/>
+          <a:ext cx="1347324" cy="222673"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>AO of Fake </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Trajectory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05006</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31944</cdr:x>
+      <cdr:y>0.13666</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E6887C-F274-43B4-A702-04E96F4FC380}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="307096" y="0"/>
+          <a:ext cx="1652627" cy="247684"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>AO of Real</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Trajectory</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84907</cdr:x>
+      <cdr:y>0.66729</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96245</cdr:x>
+      <cdr:y>0.80707</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A589215-A3C9-43BF-B307-EF202DD3DF03}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5208994" y="1209413"/>
+          <a:ext cx="695535" cy="253340"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Iterations</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.425</cdr:x>
+      <cdr:y>0.2501</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.575</cdr:x>
+      <cdr:y>0.7499</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8E4E49-0D21-47F6-84AB-CB25D15B90AD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2590976" y="457580"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07176</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15581</cdr:x>
+      <cdr:y>0.13464</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="文本框 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56968664-0897-41D5-BA4D-3AFF31BF9320}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="437495" y="0"/>
+          <a:ext cx="512379" cy="246336"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SSIM</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84569</cdr:x>
+      <cdr:y>0.70995</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92974</cdr:x>
+      <cdr:y>0.8446</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="文本框 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCCCC0F-D852-4C45-B72C-F0D79F9C62D9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5175622" y="1277917"/>
+          <a:ext cx="514367" cy="242356"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Iterations</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1076,6 +4322,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>145074</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>506121</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22247F54-A004-49E2-AC0E-F39D6775B4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9640766" y="939311"/>
+          <a:ext cx="7248355" cy="3104035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1346,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q7"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1712,6 +5002,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1719,7 +5010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E595FF30-0FBF-42D7-98CE-B496B3DFE797}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2106,55 +5397,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B466159-7BF6-434E-AB8E-63FC0DDCDA02}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="C1">
-        <v>0.45800000000000002</v>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.72</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="C2">
-        <v>0.18</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="C3">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.91</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.86099999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>

--- a/博士/论文提交/adversarial_attack/TCSVT/latex/images/iter.xlsx
+++ b/博士/论文提交/adversarial_attack/TCSVT/latex/images/iter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhbli\博士\论文提交\adversarial_attack\TCSVT\latex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2DB663-C178-407F-AE39-656D29AF035E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC290D1-97AC-4716-B797-6E97004033FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
           <c:yMode val="edge"/>
           <c:x val="7.2155264021119339E-2"/>
           <c:y val="5.0056666666666666E-2"/>
-          <c:w val="0.88418986578459935"/>
+          <c:w val="0.88932722540254816"/>
           <c:h val="0.79528555555555558"/>
         </c:manualLayout>
       </c:layout>
@@ -337,9 +337,8 @@
       <c:valAx>
         <c:axId val="602872296"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="33000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -433,7 +432,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -451,6 +450,7 @@
         <c:crossAx val="602870000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="602870000"/>
@@ -566,7 +566,7 @@
           <c:yMode val="edge"/>
           <c:x val="7.00764606785345E-2"/>
           <c:y val="4.6884444444444444E-2"/>
-          <c:w val="0.88626866912718416"/>
+          <c:w val="0.89140613613922615"/>
           <c:h val="0.79845777777777782"/>
         </c:manualLayout>
       </c:layout>
@@ -741,13 +741,12 @@
       <c:valAx>
         <c:axId val="621750904"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="33000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -766,7 +765,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -784,6 +783,7 @@
         <c:crossAx val="621751560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="621751560"/>
@@ -904,7 +904,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.7878594771241835E-2"/>
           <c:y val="4.6884444444444444E-2"/>
-          <c:w val="0.88854297385620917"/>
+          <c:w val="0.89337947014580243"/>
           <c:h val="0.79845777777777782"/>
         </c:manualLayout>
       </c:layout>
@@ -1079,9 +1079,8 @@
       <c:valAx>
         <c:axId val="626963848"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="33000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1104,7 +1103,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1122,6 +1121,7 @@
         <c:crossAx val="626956632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="626956632"/>
@@ -3781,11 +3781,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.0545</cdr:x>
+      <cdr:x>0.06384</cdr:x>
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.27551</cdr:x>
+      <cdr:x>0.28485</cdr:x>
       <cdr:y>0.12171</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -3801,8 +3801,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="332268" y="0"/>
-          <a:ext cx="1347324" cy="222673"/>
+          <a:off x="390690" y="0"/>
+          <a:ext cx="1352581" cy="219075"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3861,11 +3861,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05006</cdr:x>
+      <cdr:x>0.06251</cdr:x>
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.31944</cdr:x>
+      <cdr:x>0.33189</cdr:x>
       <cdr:y>0.13666</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -3881,8 +3881,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="307096" y="0"/>
-          <a:ext cx="1652627" cy="247684"/>
+          <a:off x="382567" y="0"/>
+          <a:ext cx="1648606" cy="245985"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4101,12 +4101,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.07176</cdr:x>
-      <cdr:y>0</cdr:y>
+      <cdr:x>0.06087</cdr:x>
+      <cdr:y>0.04233</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.15581</cdr:x>
-      <cdr:y>0.13464</cdr:y>
+      <cdr:x>0.14492</cdr:x>
+      <cdr:y>0.17697</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4121,8 +4121,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="437495" y="0"/>
-          <a:ext cx="512379" cy="246336"/>
+          <a:off x="372496" y="76200"/>
+          <a:ext cx="514386" cy="242349"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4636,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/博士/论文提交/adversarial_attack/TCSVT/latex/images/iter.xlsx
+++ b/博士/论文提交/adversarial_attack/TCSVT/latex/images/iter.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhbli\博士\论文提交\adversarial_attack\TCSVT\latex\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC290D1-97AC-4716-B797-6E97004033FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353C1B0-46F1-4702-995D-AC68F1972C3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="转置" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="小补丁" sheetId="4" r:id="rId2"/>
+    <sheet name="转置" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t xml:space="preserve">iter num </t>
   </si>
@@ -71,6 +72,26 @@
   </si>
   <si>
     <t>After Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patch Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32×32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16×16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8×8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,6 +1239,749 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16020353434296616"/>
+          <c:y val="0.12069156510158503"/>
+          <c:w val="0.79699500597444772"/>
+          <c:h val="0.66421576471059895"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>小补丁!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>小补丁!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32×32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16×16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8×8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>小补丁!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E41-4E22-BA98-D2A3DBAD2D38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="478012808"/>
+        <c:axId val="478018384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="478012808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Patch Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.946559715041557E-4"/>
+              <c:y val="2.5489356898471961E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478018384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478018384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.34000000000000008"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>AO</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53959042753851649"/>
+              <c:y val="0.90289160663427714"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478012808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="4.0000000000000008E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>小补丁!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>小补丁!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA67-4CCE-9963-F4F8B8C7E273}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="701938640"/>
+        <c:axId val="701937328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="701938640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701937328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="701937328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="701938640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1699,6 +2463,73 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
   <cs:axisTitle>
@@ -3172,6 +4003,1027 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4290,6 +6142,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822F6E38-F1BA-4E9B-9E69-409B1D86B459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>397329</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D4F4EE-D9F1-4F77-97A4-29A6168E92E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -4636,7 +6565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -5007,6 +6936,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D44B43C-141B-46FF-8469-1043EA4EFDE2}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.12</v>
+      </c>
+      <c r="D2">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <v>0.316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E595FF30-0FBF-42D7-98CE-B496B3DFE797}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -5395,7 +7392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B466159-7BF6-434E-AB8E-63FC0DDCDA02}">
   <dimension ref="A1:C5"/>
   <sheetViews>
